--- a/perf/Stream_performance.xlsx
+++ b/perf/Stream_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8655"/>
+    <workbookView windowWidth="28695" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="minInt" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>min int耗时(us)</t>
   </si>
@@ -57,6 +57,9 @@
     <t>min String耗时(us)</t>
   </si>
   <si>
+    <t>列表长度</t>
+  </si>
+  <si>
     <t>Rreduction耗时(us)</t>
   </si>
   <si>
@@ -73,11 +76,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,6 +142,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -139,23 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,18 +178,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,11 +192,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,29 +224,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,43 +276,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,25 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,25 +378,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,43 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,16 +513,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +541,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,152 +566,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +738,9 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2161,7 +2174,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>String</a:t>
+              <a:t>String列表</a:t>
             </a:r>
             <a:r>
               <a:rPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
@@ -2173,7 +2186,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>数组最小值性能</a:t>
+              <a:t>最小值性能</a:t>
             </a:r>
             <a:endParaRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
@@ -2674,7 +2687,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>数组长度</a:t>
+                  <a:t>列表长度</a:t>
                 </a:r>
                 <a:endParaRPr lang="x-none" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
                   <a:solidFill>
@@ -3033,7 +3046,31 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>求String数组最小值性能</a:t>
+              <a:t>求String</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="x-none" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="221F1E"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>列表</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="221F1E"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>最小值性能</a:t>
             </a:r>
             <a:endParaRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
@@ -8437,7 +8474,7 @@
               <a:latin typeface="楷体" charset="0"/>
               <a:ea typeface="楷体" charset="0"/>
             </a:rPr>
-            <a:t>注：所用数组长度为4E7</a:t>
+            <a:t>注：所用列表长度为4E7</a:t>
           </a:r>
           <a:endParaRPr lang="x-none" altLang="en-US" sz="1100">
             <a:latin typeface="楷体" charset="0"/>
@@ -8516,15 +8553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>80645</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126365</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>545465</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8533,7 +8570,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5108575" y="7691120"/>
+          <a:off x="4841875" y="6738620"/>
           <a:ext cx="1751965" cy="187960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8943,7 +8980,7 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="E7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -9420,8 +9457,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -9440,7 +9477,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -9545,8 +9582,8 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>1</v>
+      <c r="A10" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -9670,8 +9707,8 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>1</v>
+      <c r="A18" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>7</v>
@@ -9764,8 +9801,8 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>1</v>
+      <c r="A24" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>7</v>
@@ -9882,8 +9919,8 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -9897,7 +9934,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10017,10 +10054,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
